--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-948960.5097560324</v>
+        <v>-951840.8379160349</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10036405.55371382</v>
+        <v>10036405.55371383</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>271.8401017440135</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0.6235850545694392</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>57.49520316789278</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>368.3459471449326</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>139.9164830972605</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.837139712981789</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>58.61150458939968</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>144.436661038483</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>65.85400085191084</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>56.58072854101201</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>201.330287938294</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127583</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081973</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1543,10 +1543,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>101.8228341773908</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.12210510147827</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045451</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440903</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>161.0959195045425</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>211.7370027646316</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8432760127577</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045448</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060082077</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374744</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4224477376698</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561482</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952167</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3907690366108</v>
       </c>
       <c r="U18" t="n">
         <v>225.7492064608734</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>165.542052877167</v>
       </c>
       <c r="H19" t="n">
-        <v>64.44601915223045</v>
+        <v>140.4539897919541</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584591</v>
+        <v>181.3384883584594</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4819944627619</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>277.3582324997655</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8432760127577</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045448</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060082077</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374744</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376698</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561482</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952167</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366108</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
         <v>225.7492064608734</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.542052877167</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>21.84464054481237</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584594</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627619</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.5342960616781</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2333,7 @@
         <v>409.8432760127577</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045448</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060082077</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374744</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2409,10 +2409,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>134.4224477376698</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561482</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952167</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T24" t="n">
-        <v>188.3907690366108</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U24" t="n">
         <v>225.7492064608734</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>105.379882458509</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108457</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584594</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627619</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>95.28811101224196</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>80.33989744908958</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>103.8784673763403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.136400530892</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>892.8693763960225</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="C2" t="n">
-        <v>892.8693763960225</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="D2" t="n">
-        <v>534.603677789272</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2422.855850627274</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2422.855850627274</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>2070.08719535716</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.455337753612</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="Y2" t="n">
-        <v>1167.455337753612</v>
+        <v>1696.62143709608</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>426.3476790823676</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V4" t="n">
-        <v>426.3476790823676</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W4" t="n">
-        <v>426.3476790823676</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>426.3476790823676</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>426.3476790823676</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>825.7212517577275</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>825.7212517577275</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>439.9329991594832</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2105.978465928625</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1774.915578585054</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1422.14692331494</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.14692331494</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.9658229629848</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>639.5085250707635</v>
       </c>
       <c r="X7" t="n">
-        <v>210.9658229629848</v>
+        <v>639.5085250707635</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.9658229629848</v>
+        <v>418.7159459272334</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>885.3850306156796</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>885.3850306156796</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>527.1193320089292</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>141.3310794106849</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3855786614815</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>120.4621746000724</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655613</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1271.984870679801</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>670.9767331549069</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.1841540113768</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5018,25 +5018,25 @@
         <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
         <v>380.275713812763</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
         <v>373.34422365072</v>
@@ -5054,34 +5054,34 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
         <v>3821.234779402499</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.861033895493</v>
@@ -5112,31 +5112,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160706</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L12" t="n">
-        <v>915.089423558717</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1507.107777810845</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N12" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.812354695766</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1099.422008959557</v>
+        <v>874.9184063975744</v>
       </c>
       <c r="C13" t="n">
-        <v>930.4858260316502</v>
+        <v>705.9822234696675</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3691866193144</v>
+        <v>555.8655840573317</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4560930369213</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F13" t="n">
-        <v>485.566145539011</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H13" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
         <v>172.8304710411609</v>
@@ -5224,25 +5224,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2361.553154294196</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>2072.476940608923</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1817.792452403036</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="W13" t="n">
-        <v>1528.375282366075</v>
+        <v>1380.210798025274</v>
       </c>
       <c r="X13" t="n">
-        <v>1300.385731468058</v>
+        <v>1277.359450371344</v>
       </c>
       <c r="Y13" t="n">
-        <v>1281.070473789797</v>
+        <v>1056.566871227814</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127637</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1437450015218</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892036</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294978</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234016</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.583449151122</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.44548561026</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K15" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="L15" t="n">
-        <v>241.496329903453</v>
+        <v>584.5806809953583</v>
       </c>
       <c r="M15" t="n">
-        <v>734.6951238849133</v>
+        <v>1176.599035247486</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284249</v>
+        <v>1798.694998646822</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284444</v>
+        <v>2345.571473647016</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>638.4964696577448</v>
+        <v>804.6189678792535</v>
       </c>
       <c r="C16" t="n">
-        <v>638.4964696577448</v>
+        <v>635.6827849513467</v>
       </c>
       <c r="D16" t="n">
-        <v>638.4964696577448</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E16" t="n">
-        <v>490.5833760753517</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F16" t="n">
-        <v>343.6934285774414</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G16" t="n">
-        <v>176.4792337520202</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H16" t="n">
         <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
         <v>172.8304710411609</v>
@@ -5458,28 +5458,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2246.242309074625</v>
+        <v>2198.830003279506</v>
       </c>
       <c r="T16" t="n">
-        <v>2026.563526789007</v>
+        <v>1979.151220993888</v>
       </c>
       <c r="U16" t="n">
-        <v>1737.487313103734</v>
+        <v>1979.151220993888</v>
       </c>
       <c r="V16" t="n">
-        <v>1482.802824897847</v>
+        <v>1724.466732788001</v>
       </c>
       <c r="W16" t="n">
-        <v>1268.927064529532</v>
+        <v>1435.049562751041</v>
       </c>
       <c r="X16" t="n">
-        <v>1040.937513631515</v>
+        <v>1207.060011853023</v>
       </c>
       <c r="Y16" t="n">
-        <v>820.1449344879845</v>
+        <v>986.2674327094933</v>
       </c>
     </row>
     <row r="17">
@@ -5504,43 +5504,43 @@
         <v>794.2588208963571</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127635</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160515</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507186</v>
+        <v>373.344223650714</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074383895</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944157</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883186</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.783927800283</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610275</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.95191294679</v>
+        <v>4202.751434297616</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.534099052795</v>
+        <v>4566.333620403617</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
@@ -5568,55 +5568,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294091</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482821</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870308</v>
       </c>
       <c r="E18" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815752</v>
       </c>
       <c r="F18" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084602</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683897</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034505</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160706</v>
+        <v>572.005072466805</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2380436180413</v>
+        <v>1062.737405310551</v>
       </c>
       <c r="M18" t="n">
-        <v>965.2563978701667</v>
+        <v>1654.755759562672</v>
       </c>
       <c r="N18" t="n">
-        <v>1587.352361269501</v>
+        <v>2006.93587969558</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.228836269693</v>
+        <v>2553.812354695768</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695768</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695768</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695768</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
@@ -5631,7 +5631,7 @@
         <v>1781.725334148165</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.487977419963</v>
+        <v>1527.487977419964</v>
       </c>
       <c r="X18" t="n">
         <v>1319.636477214431</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149475921</v>
+        <v>571.8714428665049</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196852</v>
+        <v>402.9352599385981</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196852</v>
+        <v>402.9352599385981</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196852</v>
+        <v>402.9352599385981</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196852</v>
+        <v>402.9352599385981</v>
       </c>
       <c r="G19" t="n">
-        <v>158.9453371942641</v>
+        <v>235.7210651131768</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411594</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117205</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948514</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139307</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931011</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946037</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782239</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335672</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294188</v>
+        <v>2429.412499335672</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033118</v>
+        <v>2246.242309074602</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.7041817475</v>
+        <v>2026.563526788984</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062227</v>
+        <v>1746.40369598114</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.94347985634</v>
+        <v>1491.719207775253</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819379</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X19" t="n">
-        <v>897.536758921362</v>
+        <v>974.3124868402748</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778318</v>
+        <v>753.5199076967447</v>
       </c>
     </row>
     <row r="20">
@@ -5741,43 +5741,43 @@
         <v>794.2588208963571</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127635</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160515</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J20" t="n">
-        <v>424.1437450015756</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K20" t="n">
-        <v>893.7741287892512</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909295018</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234047</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.583449151145</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610275</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297616</v>
+        <v>4151.95191294679</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403617</v>
+        <v>4515.534099052795</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
@@ -5805,55 +5805,55 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294091</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482821</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870308</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E21" t="n">
-        <v>461.0359474815752</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F21" t="n">
-        <v>314.5013895084602</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683897</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160704</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K21" t="n">
-        <v>243.9627910411902</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L21" t="n">
-        <v>734.6951238849358</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M21" t="n">
-        <v>734.6951238849358</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284265</v>
+        <v>2276.851722962018</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284453</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.251080710524</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695768</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695768</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
@@ -5868,7 +5868,7 @@
         <v>1781.725334148165</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.487977419964</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
         <v>1319.636477214431</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.1153653172709</v>
+        <v>1038.856416838752</v>
       </c>
       <c r="C22" t="n">
-        <v>411.179182389364</v>
+        <v>869.9202339108456</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0625429770282</v>
+        <v>719.8035944985098</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0625429770282</v>
+        <v>571.8905009161167</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0625429770282</v>
+        <v>425.0005534182063</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160704</v>
+        <v>257.7863585927852</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160704</v>
+        <v>115.9136416312155</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411594</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117205</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948514</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139307</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931011</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946037</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782239</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335672</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335672</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074602</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526788984</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103711</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897824</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.545960189058</v>
+        <v>1669.287011710539</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5564092910407</v>
+        <v>1441.297460812522</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7638301475106</v>
+        <v>1220.504881668992</v>
       </c>
     </row>
     <row r="23">
@@ -5972,64 +5972,64 @@
         <v>1591.032978284209</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127635</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160515</v>
+        <v>93.8483481516064</v>
       </c>
       <c r="J23" t="n">
-        <v>373.344223650714</v>
+        <v>424.1437450015389</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074383895</v>
+        <v>893.7741287892186</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944157</v>
+        <v>1513.293909294991</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883186</v>
+        <v>2234.298471234025</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800283</v>
+        <v>2971.583449151129</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259413</v>
+        <v>3654.445485610264</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297617</v>
+        <v>4202.75143429761</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403619</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580354</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
         <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.861033895493</v>
@@ -6042,55 +6042,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294091</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482821</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870308</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E24" t="n">
-        <v>461.0359474815752</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F24" t="n">
-        <v>314.5013895084602</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683897</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034505</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K24" t="n">
-        <v>572.005072466805</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L24" t="n">
-        <v>1062.737405310551</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M24" t="n">
-        <v>1654.755759562672</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="N24" t="n">
-        <v>2276.851722962001</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.812354695768</v>
+        <v>2201.632234562877</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695768</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695768</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695768</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
@@ -6105,7 +6105,7 @@
         <v>1781.725334148165</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.487977419964</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
         <v>1319.636477214431</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149475762</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6513892319105</v>
+        <v>930.4858260316505</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6513892319105</v>
+        <v>780.3691866193147</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7382956495174</v>
+        <v>632.4560930369216</v>
       </c>
       <c r="F25" t="n">
-        <v>93.84834815160704</v>
+        <v>485.5661455390112</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135901</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411594</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117205</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948514</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139307</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931011</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946037</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782239</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335672</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294173</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033102</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747484</v>
+        <v>2141.87437200857</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062211</v>
+        <v>1852.798158323297</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856324</v>
+        <v>1598.11367011741</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819363</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213461</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778159</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>316.6799057705107</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>174.9680746127088</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6555,10 +6555,10 @@
         <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6838,10 +6838,10 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580114</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7020,19 +7020,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7175,10 +7175,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7333,46 +7333,46 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380721</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7728,22 +7728,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>51.31264782909216</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.31264782909273</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782909273</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>51.31264782915321</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.31264782911214</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.31264782915321</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782911214</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>51.31264782911205</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>51.3126478291548</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110.8937399194671</v>
+        <v>43.60065262799176</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>313.0784382430675</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.6005824537199</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.074338869684235e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>123.8868212116463</v>
       </c>
       <c r="Y13" t="n">
-        <v>199.4625482506165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>20.24256885391648</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>74.78599557195938</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>76.00797063972352</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440925</v>
+        <v>81.8045767444097</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108457</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>8.827219048654911</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919541</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.8045767444097</v>
+        <v>59.95993619959687</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108457</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>16.9887022749129</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>61.86693864011882</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.542052877167</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919541</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.8045767444097</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>191.234887324349</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0.9259388694759565</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>63.36835372228754</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169831.6691086305</v>
+        <v>169831.6691086304</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
         <v>201670.7442796398</v>
       </c>
       <c r="F2" t="n">
+        <v>201670.7442796398</v>
+      </c>
+      <c r="G2" t="n">
+        <v>201670.7442796396</v>
+      </c>
+      <c r="H2" t="n">
         <v>201670.7442796397</v>
       </c>
-      <c r="G2" t="n">
-        <v>201670.7442796397</v>
-      </c>
-      <c r="H2" t="n">
-        <v>201670.7442796396</v>
-      </c>
       <c r="I2" t="n">
-        <v>201670.7442796397</v>
+        <v>201670.7442796399</v>
       </c>
       <c r="J2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="K2" t="n">
         <v>201786.6499225015</v>
       </c>
-      <c r="K2" t="n">
-        <v>201786.6499225016</v>
-      </c>
       <c r="L2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
         <v>205260.442466071</v>
       </c>
       <c r="O2" t="n">
+        <v>205260.442466071</v>
+      </c>
+      <c r="P2" t="n">
         <v>205260.4424660709</v>
-      </c>
-      <c r="P2" t="n">
-        <v>205260.442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545123</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.515374715721313e-09</v>
+        <v>-7.879457480497271e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.600991469827326e-09</v>
+        <v>6.267658136493992e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792317</v>
+        <v>183669.0093792255</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
         <v>124307.2113901373</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120178.1964869551</v>
+        <v>120178.196486955</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.97189485514</v>
+        <v>5781.971894855132</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.97189485514</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="G4" t="n">
+        <v>5781.971894855982</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5781.971894855411</v>
+      </c>
+      <c r="I4" t="n">
         <v>5781.97189485541</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5781.971894855982</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5781.971894856004</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.45186476393</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="N4" t="n">
         <v>13058.4518647639</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26482,13 +26482,13 @@
         <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
+        <v>100930.0394572383</v>
+      </c>
+      <c r="H5" t="n">
         <v>100930.0394572385</v>
       </c>
-      <c r="H5" t="n">
-        <v>100930.0394572383</v>
-      </c>
       <c r="I5" t="n">
-        <v>100930.0394572383</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-623173.4846562785</v>
+        <v>-623527.7723898528</v>
       </c>
       <c r="C6" t="n">
         <v>-78663.14152507024</v>
       </c>
       <c r="D6" t="n">
-        <v>-78663.14152507027</v>
+        <v>-78663.14152507021</v>
       </c>
       <c r="E6" t="n">
-        <v>-841550.9325269663</v>
+        <v>-841586.8295088304</v>
       </c>
       <c r="F6" t="n">
-        <v>94958.73292754602</v>
+        <v>94922.83594568179</v>
       </c>
       <c r="G6" t="n">
-        <v>94958.73292754902</v>
+        <v>94922.83594569062</v>
       </c>
       <c r="H6" t="n">
-        <v>94958.73292755161</v>
+        <v>94922.83594567528</v>
       </c>
       <c r="I6" t="n">
-        <v>94958.73292754544</v>
+        <v>94922.83594568171</v>
       </c>
       <c r="J6" t="n">
-        <v>-88072.48188230777</v>
+        <v>-88107.21980773714</v>
       </c>
       <c r="K6" t="n">
-        <v>95596.52749692417</v>
+        <v>95561.78957148825</v>
       </c>
       <c r="L6" t="n">
-        <v>69610.15675376006</v>
+        <v>69610.15675376015</v>
       </c>
       <c r="M6" t="n">
-        <v>-35269.33664274582</v>
+        <v>-35269.33664274539</v>
       </c>
       <c r="N6" t="n">
-        <v>89037.87474739167</v>
+        <v>89037.87474739173</v>
       </c>
       <c r="O6" t="n">
-        <v>89037.87474739167</v>
+        <v>89037.87474739153</v>
       </c>
       <c r="P6" t="n">
-        <v>89037.87474739159</v>
+        <v>89037.87474739164</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203968</v>
@@ -26750,13 +26750,13 @@
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
+        <v>1358.041048716373</v>
+      </c>
+      <c r="H3" t="n">
         <v>1358.041048716382</v>
       </c>
-      <c r="H3" t="n">
-        <v>1358.041048716373</v>
-      </c>
       <c r="I3" t="n">
-        <v>1358.041048716373</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,40 +26966,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.297384499299</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.527665719100172e-12</v>
+        <v>-1.083069480281673e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.185452315956354e-12</v>
+        <v>8.185452315956354e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.934451625300653</v>
+        <v>9.93445162529224</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.273736754432321e-13</v>
+      </c>
+      <c r="P3" t="n">
         <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>673.8912089591161</v>
+        <v>673.8912089591158</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>339.1331890354888</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>93.79760749864397</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>228.7866710740849</v>
+        <v>242.9640208028379</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>38.53009859677888</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>111.3076844110288</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>160.4096813856461</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>227.9114937471913</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>238.2971806249976</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>258.0687719124463</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>169.1289268480251</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.25436541380077</v>
       </c>
     </row>
     <row r="11">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
@@ -31850,16 +31850,16 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>636.218582673967</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>180.8424455441211</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>640.3146339032913</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927637</v>
@@ -32093,10 +32093,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>344.3187317059969</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377376</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122232</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704053</v>
+        <v>210.475889570404</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874023</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830368</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364185</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293221</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229519</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086869</v>
       </c>
       <c r="P17" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687452</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148553</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987132</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854246</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665697</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.43675692019019</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540879</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088165</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735793</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848181</v>
       </c>
       <c r="L18" t="n">
-        <v>420.766193382333</v>
+        <v>634.2436048745667</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504234</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927615</v>
+        <v>487.0792071670786</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426142</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982436</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862111</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821082</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013737</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291835</v>
+        <v>2.44892648129182</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548548</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284858</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273317</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900877</v>
+        <v>284.520731190086</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640585</v>
       </c>
       <c r="M19" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574264987</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416863</v>
+        <v>374.752540541684</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465931</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282397</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561724</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860849</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851289</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551959</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704631</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377376</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122232</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I20" t="n">
-        <v>210.475889570404</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874023</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830368</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364185</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293221</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229519</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086869</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687452</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148553</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987132</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854246</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665697</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U20" t="n">
-        <v>0.43675692019019</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540879</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088165</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K21" t="n">
-        <v>289.4721893678774</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745667</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927568</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426142</v>
+        <v>422.3544583169176</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862111</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821082</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013737</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.44892648129182</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548548</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284858</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273317</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K22" t="n">
-        <v>284.520731190086</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640585</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574264987</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N22" t="n">
-        <v>374.752540541684</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465931</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282397</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561724</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860849</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851289</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551959</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704631</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377376</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122232</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I23" t="n">
-        <v>210.475889570404</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874023</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830368</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364185</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293221</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229519</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086869</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687452</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148553</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987132</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854246</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665697</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U23" t="n">
-        <v>0.43675692019019</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540879</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088165</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735793</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848181</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745667</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504234</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927568</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>422.354458316936</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>256.8217267553848</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862111</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821082</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013737</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.44892648129182</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548548</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284858</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273317</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K25" t="n">
-        <v>284.520731190086</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640585</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574264987</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N25" t="n">
-        <v>374.752540541684</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465931</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282397</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561724</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860849</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851289</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551959</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704631</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33740,7 +33740,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806161006</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35431,7 +35431,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>178.6700086136768</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
@@ -35498,16 +35498,16 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>504.8768705906338</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>46.86803812979091</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6317139898129</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>677.0902038955309</v>
       </c>
       <c r="M14" t="n">
         <v>728.287436302058</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>498.180599981273</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094305</v>
@@ -35741,10 +35741,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>210.3443242916667</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>-1.904254531837068e-12</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607188</v>
+        <v>282.319066160716</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380562</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664313</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020494</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263609</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870057</v>
+        <v>741.0722806161533</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134757</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404057</v>
       </c>
       <c r="R17" t="n">
-        <v>178.6700086136952</v>
+        <v>127.357360784581</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069126</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104591</v>
       </c>
       <c r="L18" t="n">
-        <v>282.2118136024588</v>
+        <v>495.6892250946925</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284051</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094282</v>
+        <v>355.7374950837453</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981697</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839134</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211065893</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642031</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243747</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883393</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209126</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606328</v>
       </c>
       <c r="P19" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931332</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044792</v>
+        <v>118.902155104478</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.904254531837068e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>333.6317139898692</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380562</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664313</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020494</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263609</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870001</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134757</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404057</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R20" t="n">
-        <v>127.357360784581</v>
+        <v>178.6700086136952</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K21" t="n">
-        <v>151.6307503935184</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946925</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094235</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981697</v>
+        <v>279.7582138724732</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839101</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426703</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211065893</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642031</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243747</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883393</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209126</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606328</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931332</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.902155104478</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.904254531837068e-12</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>282.319066160716</v>
+        <v>333.6317139898308</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380562</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664313</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020494</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263609</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870001</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P23" t="n">
-        <v>605.1570404426305</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404057</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R23" t="n">
-        <v>127.357360784581</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069126</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104591</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946925</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284051</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094235</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>279.7582138724915</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>122.8473193410546</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211065893</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642031</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243747</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883393</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209126</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606328</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931332</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.902155104478</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
